--- a/logging.xlsx
+++ b/logging.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aerospace Engineering\Master C&amp;S year 1\AE4350 Bio-inspired Intelligence and learning for Aerospace Applications\AE4350_Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DFCE25-0311-4D68-AD2D-A773DDDBD5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E05C6F9-A5E7-4E6A-8C48-9B838443C9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04BDE41C-FDFB-48B9-A4DA-38C4770719D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sens" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Log Name</t>
   </si>
@@ -129,6 +130,39 @@
   </si>
   <si>
     <t>Sometimes workie sometimes not</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>N_steps</t>
+  </si>
+  <si>
+    <t>n_steps1024</t>
+  </si>
+  <si>
+    <t>ns512</t>
+  </si>
+  <si>
+    <t>ns2048</t>
+  </si>
+  <si>
+    <t>ns64</t>
+  </si>
+  <si>
+    <t>batch_size</t>
+  </si>
+  <si>
+    <t>bs64</t>
+  </si>
+  <si>
+    <t>bs512</t>
+  </si>
+  <si>
+    <t>bs1024</t>
+  </si>
+  <si>
+    <t>bs2048</t>
   </si>
 </sst>
 </file>
@@ -507,7 +541,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,4 +775,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E358B9FE-E59F-406B-B763-61E72EA52D7F}">
+  <dimension ref="B2:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>128</v>
+      </c>
+      <c r="D3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <v>2048</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>